--- a/praca/DP.xlsx
+++ b/praca/DP.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>GWS</t>
   </si>
@@ -57,160 +57,10 @@
     <t>Intel Xeon X5650</t>
   </si>
   <si>
-    <t>0.027956569</t>
-  </si>
-  <si>
-    <t>19.388696</t>
-  </si>
-  <si>
-    <t>0.017878390</t>
-  </si>
-  <si>
-    <t>159.571345</t>
-  </si>
-  <si>
-    <t>0.013113108</t>
-  </si>
-  <si>
-    <t>24.278403</t>
-  </si>
-  <si>
-    <t>0.012439787</t>
-  </si>
-  <si>
-    <t>33.381745</t>
-  </si>
-  <si>
-    <t>0.013066212</t>
-  </si>
-  <si>
-    <t>206.016151</t>
-  </si>
-  <si>
-    <t>0.019240464</t>
-  </si>
-  <si>
-    <t>26.729176</t>
-  </si>
-  <si>
-    <t>0.030754064</t>
-  </si>
-  <si>
-    <t>75.695793</t>
-  </si>
-  <si>
-    <t>0.012024638</t>
-  </si>
-  <si>
-    <t>127.655803</t>
-  </si>
-  <si>
-    <t>0.020759838</t>
-  </si>
-  <si>
-    <t>18.236800</t>
-  </si>
-  <si>
-    <t>0.009663423</t>
-  </si>
-  <si>
-    <t>15.791224</t>
-  </si>
-  <si>
-    <t>0.038721568</t>
-  </si>
-  <si>
-    <t>66.436702</t>
-  </si>
-  <si>
-    <t>0.015134308</t>
-  </si>
-  <si>
-    <t>206.137329</t>
-  </si>
-  <si>
-    <t>0.095387024</t>
-  </si>
-  <si>
-    <t>1818.916725</t>
-  </si>
-  <si>
-    <t>0.013101868</t>
-  </si>
-  <si>
-    <t>10.482335</t>
-  </si>
-  <si>
-    <t>0.197622620</t>
-  </si>
-  <si>
-    <t>980.509319</t>
-  </si>
-  <si>
-    <t>0.022045647</t>
-  </si>
-  <si>
-    <t>12.673312</t>
-  </si>
-  <si>
-    <t>0.684736586</t>
-  </si>
-  <si>
-    <t>10056.357128</t>
-  </si>
-  <si>
-    <t>0.374420256</t>
-  </si>
-  <si>
-    <t>0.257143104</t>
-  </si>
-  <si>
-    <t>0.251639840</t>
-  </si>
-  <si>
-    <t>0.327004000</t>
-  </si>
-  <si>
-    <t>0.646544832</t>
-  </si>
-  <si>
-    <t>1.964241216</t>
-  </si>
-  <si>
-    <t>7.199456512</t>
-  </si>
-  <si>
     <t>LOG</t>
   </si>
   <si>
     <t>NIERÓWNE</t>
-  </si>
-  <si>
-    <t>0.241589312</t>
-  </si>
-  <si>
-    <t>0.228604096</t>
-  </si>
-  <si>
-    <t>0.229056000</t>
-  </si>
-  <si>
-    <t>0.235019136</t>
-  </si>
-  <si>
-    <t>0.240700160</t>
-  </si>
-  <si>
-    <t>0.242548544</t>
-  </si>
-  <si>
-    <t>0.238698048</t>
-  </si>
-  <si>
-    <t>0.300927872</t>
-  </si>
-  <si>
-    <t>0.582654752</t>
   </si>
 </sst>
 </file>
@@ -280,6 +130,1135 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Czas</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> w kernelach OpenCL od globalnej ilości wątków na karcie Tesla M2090 </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>10k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$B$4:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$G$4:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.7160991999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3712064000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9452224000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1396352E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5486656E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.986688E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.3341887999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="151213056"/>
+        <c:axId val="151418496"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="151213056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="151418496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="151418496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas w kernelach</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> OpenCL [s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="151213056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Czas</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> w kernelach OpenCL od globalnej ilości wątków na karcie Tesla M2090</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>100k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$B$22:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$G$22:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.37442025600000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25714310400000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25163984</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32700400000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64654483200000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.964241216</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.1994565120000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="151963648"/>
+        <c:axId val="65867136"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="151963648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="65867136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="65867136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas w kernelach</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> OpenCL [s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="151963648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Czas</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> w kernelach OpenCL od globalnej ilości wątków na procesorze Intel Xeon X5650</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>10k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$B$22:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$G$42:$G$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.7956569000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7878390000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3113108E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2439787000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3066212000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9240463999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0754064000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="156233728"/>
+        <c:axId val="65871168"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="156233728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="65871168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="65871168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas w kernelach</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> OpenCL [s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="156233728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Czas w kernelach OpenCL od</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> globalnej ilości wątków przy lokalnej ilości wątków 256 na karcie Tesla M2090</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>10k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Arkusz1!$B$12,Arkusz1!$B$14,Arkusz1!$B$16,Arkusz1!$B$18,Arkusz1!$B$19)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Arkusz1!$G$12,Arkusz1!$G$13,Arkusz1!$G$15,Arkusz1!$G$17,Arkusz1!$G$19)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.9452224000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1087232000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0850336000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1565344E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0489696E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="151964672"/>
+        <c:axId val="65870016"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="151964672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="65870016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="65870016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="151964672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Czas w kernelach OpenCL od</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> globalnej ilości wątków przy lokalnej ilości wątków 256 na karcie Tesla M2090</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>100k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$B$30:$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1792</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$G$30:$G$39</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.25163984</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.241589312</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22860409600000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22905600000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23501913599999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.24070016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.242548544</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.238698048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.30092787199999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.58265475200000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="132672512"/>
+        <c:axId val="74094208"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="132672512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="74094208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="74094208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="132672512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Wykres 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Wykres 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Wykres 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -569,10 +1548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,6 +1629,12 @@
       <c r="H4" s="3">
         <v>6.4759479999999998</v>
       </c>
+      <c r="I4">
+        <v>81</v>
+      </c>
+      <c r="J4">
+        <v>78</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -676,6 +1661,12 @@
       <c r="H5" s="3">
         <v>5.4412330000000004</v>
       </c>
+      <c r="I5">
+        <v>83</v>
+      </c>
+      <c r="J5">
+        <v>78</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -702,6 +1693,12 @@
       <c r="H6" s="3">
         <v>203.24719999999999</v>
       </c>
+      <c r="I6">
+        <v>87</v>
+      </c>
+      <c r="J6">
+        <v>78</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -728,6 +1725,12 @@
       <c r="H7" s="3">
         <v>5.3212809999999999</v>
       </c>
+      <c r="I7">
+        <v>80</v>
+      </c>
+      <c r="J7">
+        <v>78</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -754,6 +1757,12 @@
       <c r="H8" s="3">
         <v>42.837831999999999</v>
       </c>
+      <c r="I8">
+        <v>82</v>
+      </c>
+      <c r="J8">
+        <v>78</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -780,6 +1789,12 @@
       <c r="H9" s="3">
         <v>219.401419</v>
       </c>
+      <c r="I9">
+        <v>85</v>
+      </c>
+      <c r="J9">
+        <v>78</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -806,6 +1821,12 @@
       <c r="H10" s="3">
         <v>62.985368999999999</v>
       </c>
+      <c r="I10">
+        <v>81</v>
+      </c>
+      <c r="J10">
+        <v>78</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -839,6 +1860,12 @@
       <c r="H12" s="3">
         <v>203.24719999999999</v>
       </c>
+      <c r="I12">
+        <v>87</v>
+      </c>
+      <c r="J12">
+        <v>78</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -865,6 +1892,12 @@
       <c r="H13" s="3">
         <v>39.341701</v>
       </c>
+      <c r="I13">
+        <v>81</v>
+      </c>
+      <c r="J13">
+        <v>80</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -880,7 +1913,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>9999</v>
+        <v>19999</v>
       </c>
       <c r="F14">
         <v>20</v>
@@ -890,6 +1923,12 @@
       </c>
       <c r="H14" s="3">
         <v>412.88179600000001</v>
+      </c>
+      <c r="I14">
+        <v>83</v>
+      </c>
+      <c r="J14">
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -917,6 +1956,12 @@
       <c r="H15" s="3">
         <v>204.02937299999999</v>
       </c>
+      <c r="I15">
+        <v>85</v>
+      </c>
+      <c r="J15">
+        <v>90</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -943,8 +1988,14 @@
       <c r="H16" s="3">
         <v>68.903513000000004</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>81</v>
+      </c>
+      <c r="J16">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6</v>
       </c>
@@ -969,8 +2020,14 @@
       <c r="H17" s="3">
         <v>104.71261699999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>80</v>
+      </c>
+      <c r="J17">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7</v>
       </c>
@@ -995,8 +2052,14 @@
       <c r="H18" s="3">
         <v>267.49327</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>82</v>
+      </c>
+      <c r="J18">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>8</v>
       </c>
@@ -1021,8 +2084,14 @@
       <c r="H19" s="3">
         <v>12.861052000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>86</v>
+      </c>
+      <c r="J19">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>9</v>
       </c>
@@ -1047,15 +2116,21 @@
       <c r="H20" s="3">
         <v>1067.027877</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>82</v>
+      </c>
+      <c r="J20">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1074,12 +2149,12 @@
       <c r="F22">
         <v>98</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>47</v>
+      <c r="G22" s="3">
+        <v>0.37442025600000001</v>
       </c>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1098,12 +2173,12 @@
       <c r="F23">
         <v>196</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>48</v>
+      <c r="G23" s="3">
+        <v>0.25714310400000001</v>
       </c>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1122,12 +2197,12 @@
       <c r="F24">
         <v>391</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>49</v>
+      <c r="G24" s="3">
+        <v>0.25163984</v>
       </c>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4</v>
       </c>
@@ -1146,12 +2221,12 @@
       <c r="F25">
         <v>782</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>50</v>
+      <c r="G25" s="3">
+        <v>0.32700400000000002</v>
       </c>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5</v>
       </c>
@@ -1170,12 +2245,12 @@
       <c r="F26">
         <v>1563</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>51</v>
+      <c r="G26" s="3">
+        <v>0.64654483200000001</v>
       </c>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>6</v>
       </c>
@@ -1194,12 +2269,12 @@
       <c r="F27">
         <v>3125</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>52</v>
+      <c r="G27" s="3">
+        <v>1.964241216</v>
       </c>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>7</v>
       </c>
@@ -1218,280 +2293,277 @@
       <c r="F28">
         <v>6250</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>53</v>
+      <c r="G28" s="3">
+        <v>7.1994565120000003</v>
       </c>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B30">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="C30">
         <v>256</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30">
         <v>99999</v>
       </c>
       <c r="F30">
-        <v>196</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>56</v>
+        <v>391</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0.25163984</v>
       </c>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31">
-        <v>768</v>
+        <v>512</v>
       </c>
       <c r="C31">
         <v>256</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E31">
         <v>99999</v>
       </c>
       <c r="F31">
-        <v>131</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>57</v>
+        <v>196</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0.241589312</v>
       </c>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B32">
-        <v>1024</v>
+        <v>768</v>
       </c>
       <c r="C32">
         <v>256</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E32">
         <v>99999</v>
       </c>
       <c r="F32">
-        <v>98</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>58</v>
+        <v>131</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.22860409600000001</v>
       </c>
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33">
-        <v>1280</v>
+        <v>1024</v>
       </c>
       <c r="C33">
         <v>256</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E33">
         <v>99999</v>
       </c>
       <c r="F33">
-        <v>79</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>59</v>
+        <v>98</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0.22905600000000001</v>
       </c>
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34">
-        <v>1536</v>
+        <v>1280</v>
       </c>
       <c r="C34">
         <v>256</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E34">
         <v>99999</v>
       </c>
       <c r="F34">
-        <v>66</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>60</v>
+        <v>79</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0.23501913599999999</v>
       </c>
       <c r="H34" s="3"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35">
-        <v>1792</v>
+        <v>1536</v>
       </c>
       <c r="C35">
         <v>256</v>
       </c>
       <c r="D35">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E35">
         <v>99999</v>
       </c>
       <c r="F35">
-        <v>56</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0.24070016</v>
       </c>
       <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B36">
-        <v>2048</v>
+        <v>1792</v>
       </c>
       <c r="C36">
         <v>256</v>
       </c>
       <c r="D36">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E36">
         <v>99999</v>
       </c>
       <c r="F36">
-        <v>49</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.242548544</v>
       </c>
       <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37">
-        <v>4096</v>
+        <v>2048</v>
       </c>
       <c r="C37">
         <v>256</v>
       </c>
       <c r="D37">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E37">
         <v>99999</v>
       </c>
       <c r="F37">
-        <v>25</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>63</v>
+        <v>49</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0.238698048</v>
       </c>
       <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B38">
-        <v>8192</v>
+        <v>4096</v>
       </c>
       <c r="C38">
         <v>256</v>
       </c>
       <c r="D38">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E38">
         <v>99999</v>
       </c>
       <c r="F38">
+        <v>25</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.30092787199999999</v>
+      </c>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>8192</v>
+      </c>
+      <c r="C39">
+        <v>256</v>
+      </c>
+      <c r="D39">
+        <v>32</v>
+      </c>
+      <c r="E39">
+        <v>99999</v>
+      </c>
+      <c r="F39">
         <v>13</v>
       </c>
-      <c r="G38" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" t="s">
+      <c r="G39" s="3">
+        <v>0.58265475200000005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41">
-        <v>1024</v>
-      </c>
-      <c r="C41">
-        <v>1024</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>9999</v>
-      </c>
-      <c r="F41">
-        <v>10</v>
-      </c>
-      <c r="G41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B42">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="C42">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -1500,24 +2572,24 @@
         <v>9999</v>
       </c>
       <c r="F42">
-        <v>20</v>
-      </c>
-      <c r="G42" t="s">
-        <v>15</v>
-      </c>
-      <c r="H42" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="G42">
+        <v>2.7956569000000001E-2</v>
+      </c>
+      <c r="H42">
+        <v>19.388695999999999</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B43">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="C43">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -1526,24 +2598,24 @@
         <v>9999</v>
       </c>
       <c r="F43">
-        <v>40</v>
-      </c>
-      <c r="G43" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="G43">
+        <v>1.7878390000000001E-2</v>
+      </c>
+      <c r="H43">
+        <v>159.57134500000001</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B44">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="C44">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -1552,24 +2624,24 @@
         <v>9999</v>
       </c>
       <c r="F44">
-        <v>79</v>
-      </c>
-      <c r="G44" t="s">
-        <v>19</v>
-      </c>
-      <c r="H44" t="s">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="G44">
+        <v>1.3113108E-2</v>
+      </c>
+      <c r="H44">
+        <v>24.278403000000001</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B45">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="C45">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1578,24 +2650,24 @@
         <v>9999</v>
       </c>
       <c r="F45">
-        <v>157</v>
-      </c>
-      <c r="G45" t="s">
-        <v>21</v>
-      </c>
-      <c r="H45" t="s">
-        <v>22</v>
+        <v>79</v>
+      </c>
+      <c r="G45">
+        <v>1.2439787000000001E-2</v>
+      </c>
+      <c r="H45">
+        <v>33.381745000000002</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B46">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C46">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -1604,24 +2676,24 @@
         <v>9999</v>
       </c>
       <c r="F46">
-        <v>313</v>
-      </c>
-      <c r="G46" t="s">
-        <v>23</v>
-      </c>
-      <c r="H46" t="s">
-        <v>24</v>
+        <v>157</v>
+      </c>
+      <c r="G46">
+        <v>1.3066212000000001E-2</v>
+      </c>
+      <c r="H46">
+        <v>206.01615100000001</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B47">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C47">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -1630,49 +2702,49 @@
         <v>9999</v>
       </c>
       <c r="F47">
+        <v>313</v>
+      </c>
+      <c r="G47">
+        <v>1.9240463999999999E-2</v>
+      </c>
+      <c r="H47">
+        <v>26.729175999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>7</v>
+      </c>
+      <c r="B48">
+        <v>16</v>
+      </c>
+      <c r="C48">
+        <v>16</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>9999</v>
+      </c>
+      <c r="F48">
         <v>625</v>
       </c>
-      <c r="G47" t="s">
-        <v>25</v>
-      </c>
-      <c r="H47" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+      <c r="G48">
+        <v>3.0754064000000001E-2</v>
+      </c>
+      <c r="H48">
+        <v>75.695792999999995</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
         <v>128</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>1</v>
-      </c>
-      <c r="B49">
-        <v>256</v>
-      </c>
-      <c r="C49">
-        <v>128</v>
-      </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
-      <c r="E49">
-        <v>9999</v>
-      </c>
-      <c r="F49">
-        <v>40</v>
-      </c>
-      <c r="G49" t="s">
-        <v>27</v>
-      </c>
-      <c r="H49" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B50">
         <v>256</v>
@@ -1684,47 +2756,47 @@
         <v>2</v>
       </c>
       <c r="E50">
-        <v>19999</v>
+        <v>9999</v>
       </c>
       <c r="F50">
-        <v>79</v>
-      </c>
-      <c r="G50" t="s">
-        <v>29</v>
-      </c>
-      <c r="H50" t="s">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="G50">
+        <v>1.2024638000000001E-2</v>
+      </c>
+      <c r="H50">
+        <v>127.65580300000001</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B51">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="C51">
         <v>128</v>
       </c>
       <c r="D51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E51">
-        <v>9999</v>
+        <v>19999</v>
       </c>
       <c r="F51">
-        <v>20</v>
-      </c>
-      <c r="G51" t="s">
-        <v>31</v>
-      </c>
-      <c r="H51" t="s">
-        <v>32</v>
+        <v>79</v>
+      </c>
+      <c r="G51">
+        <v>2.0759837999999999E-2</v>
+      </c>
+      <c r="H51">
+        <v>18.236799999999999</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B52">
         <v>512</v>
@@ -1736,47 +2808,47 @@
         <v>4</v>
       </c>
       <c r="E52">
-        <v>39999</v>
+        <v>9999</v>
       </c>
       <c r="F52">
-        <v>79</v>
-      </c>
-      <c r="G52" t="s">
-        <v>33</v>
-      </c>
-      <c r="H52" t="s">
-        <v>34</v>
+        <v>20</v>
+      </c>
+      <c r="G52">
+        <v>9.6634230000000008E-3</v>
+      </c>
+      <c r="H52">
+        <v>15.791224</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B53">
-        <v>1024</v>
+        <v>512</v>
       </c>
       <c r="C53">
         <v>128</v>
       </c>
       <c r="D53">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E53">
-        <v>9999</v>
+        <v>39999</v>
       </c>
       <c r="F53">
-        <v>10</v>
-      </c>
-      <c r="G53" t="s">
-        <v>35</v>
-      </c>
-      <c r="H53" t="s">
-        <v>36</v>
+        <v>79</v>
+      </c>
+      <c r="G53">
+        <v>3.8721567999999998E-2</v>
+      </c>
+      <c r="H53">
+        <v>66.436701999999997</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B54">
         <v>1024</v>
@@ -1788,47 +2860,47 @@
         <v>8</v>
       </c>
       <c r="E54">
-        <v>79999</v>
+        <v>9999</v>
       </c>
       <c r="F54">
-        <v>79</v>
-      </c>
-      <c r="G54" t="s">
-        <v>37</v>
-      </c>
-      <c r="H54" t="s">
-        <v>38</v>
+        <v>10</v>
+      </c>
+      <c r="G54">
+        <v>1.5134308000000001E-2</v>
+      </c>
+      <c r="H54">
+        <v>206.13732899999999</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B55">
-        <v>2048</v>
+        <v>1024</v>
       </c>
       <c r="C55">
         <v>128</v>
       </c>
       <c r="D55">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E55">
-        <v>9999</v>
+        <v>79999</v>
       </c>
       <c r="F55">
-        <v>5</v>
-      </c>
-      <c r="G55" t="s">
-        <v>39</v>
-      </c>
-      <c r="H55" t="s">
-        <v>40</v>
+        <v>79</v>
+      </c>
+      <c r="G55">
+        <v>9.5387024000000001E-2</v>
+      </c>
+      <c r="H55">
+        <v>1818.916725</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B56">
         <v>2048</v>
@@ -1840,47 +2912,47 @@
         <v>16</v>
       </c>
       <c r="E56">
-        <v>159999</v>
+        <v>9999</v>
       </c>
       <c r="F56">
-        <v>79</v>
-      </c>
-      <c r="G56" t="s">
-        <v>41</v>
-      </c>
-      <c r="H56" t="s">
-        <v>42</v>
+        <v>5</v>
+      </c>
+      <c r="G56">
+        <v>1.3101867999999999E-2</v>
+      </c>
+      <c r="H56">
+        <v>10.482335000000001</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B57">
-        <v>4096</v>
+        <v>2048</v>
       </c>
       <c r="C57">
         <v>128</v>
       </c>
       <c r="D57">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E57">
-        <v>9999</v>
+        <v>159999</v>
       </c>
       <c r="F57">
-        <v>2</v>
-      </c>
-      <c r="G57" t="s">
-        <v>43</v>
-      </c>
-      <c r="H57" t="s">
-        <v>44</v>
+        <v>79</v>
+      </c>
+      <c r="G57">
+        <v>0.19762262</v>
+      </c>
+      <c r="H57">
+        <v>980.509319</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B58">
         <v>4096</v>
@@ -1892,16 +2964,42 @@
         <v>32</v>
       </c>
       <c r="E58">
+        <v>9999</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>2.2045647000000002E-2</v>
+      </c>
+      <c r="H58">
+        <v>12.673311999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>10</v>
+      </c>
+      <c r="B59">
+        <v>4096</v>
+      </c>
+      <c r="C59">
+        <v>128</v>
+      </c>
+      <c r="D59">
+        <v>32</v>
+      </c>
+      <c r="E59">
         <v>319999</v>
       </c>
-      <c r="F58">
+      <c r="F59">
         <v>79</v>
       </c>
-      <c r="G58" t="s">
-        <v>45</v>
-      </c>
-      <c r="H58" t="s">
-        <v>46</v>
+      <c r="G59">
+        <v>0.68473658599999998</v>
+      </c>
+      <c r="H59">
+        <v>10056.357128</v>
       </c>
     </row>
   </sheetData>
@@ -1914,11 +3012,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/praca/DP.xlsx
+++ b/praca/DP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="18195" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="18195" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>GWS</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>NIERÓWNE</t>
+  </si>
+  <si>
+    <t>Czas/macierz</t>
   </si>
 </sst>
 </file>
@@ -161,7 +164,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="pl-PL" baseline="0"/>
-              <a:t> w kernelach OpenCL od globalnej ilości wątków na karcie Tesla M2090 </a:t>
+              <a:t> w kernelach OpenCL od lokalnej ilości wątków na karcie Tesla M2090 </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -253,21 +256,47 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="151213056"/>
-        <c:axId val="151418496"/>
+        <c:axId val="75436032"/>
+        <c:axId val="100898432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="151213056"/>
+        <c:axId val="75436032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Lokalna ilość wątków</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.46702868172745965"/>
+              <c:y val="0.90582198758495158"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151418496"/>
+        <c:crossAx val="100898432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -275,7 +304,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151418496"/>
+        <c:axId val="100898432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -310,7 +339,421 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151213056"/>
+        <c:crossAx val="75436032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Realny czas rozwiązania od globalnej ilości wątków na procesorze Intel Xeon X5650</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>10k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$C$4:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$H$42:$H$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>19.388695999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>159.57134500000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.278403000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.381745000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>206.01615100000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.729175999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75.695792999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="139556864"/>
+        <c:axId val="143736128"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="139556864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Globalna</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> ilość wątków</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="143736128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="143736128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas realny [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="139556864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Zużycie pamięci na karcie Tesla M2090 w zależności od globalnej ilości wątków</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>10k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Arkusz1!$B$12,Arkusz1!$B$13,Arkusz1!$B$15,Arkusz1!$B$17,Arkusz1!$B$19)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Arkusz1!$J$12,Arkusz1!$J$14,Arkusz1!$J$16,Arkusz1!$J$18,Arkusz1!$J$20)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="143005184"/>
+        <c:axId val="77613312"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="143005184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Globalna ilość wątków</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="77613312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="77613312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Zużycie pamięci [MB]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="143005184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -361,7 +804,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="pl-PL" baseline="0"/>
-              <a:t> w kernelach OpenCL od globalnej ilości wątków na karcie Tesla M2090</a:t>
+              <a:t> w kernelach OpenCL od lokalnej ilości wątków na karcie Tesla M2090</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -453,21 +896,40 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="151963648"/>
-        <c:axId val="65867136"/>
+        <c:axId val="75437056"/>
+        <c:axId val="100900160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="151963648"/>
+        <c:axId val="75437056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Lokalna ilość wątków</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65867136"/>
+        <c:crossAx val="100900160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -475,7 +937,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65867136"/>
+        <c:axId val="100900160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -510,7 +972,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151963648"/>
+        <c:crossAx val="75437056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -561,7 +1023,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="pl-PL" baseline="0"/>
-              <a:t> w kernelach OpenCL od globalnej ilości wątków na procesorze Intel Xeon X5650</a:t>
+              <a:t> w kernelach OpenCL od lokanej ilości wątków na procesorze Intel Xeon X5650</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -653,21 +1115,40 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="156233728"/>
-        <c:axId val="65871168"/>
+        <c:axId val="75437568"/>
+        <c:axId val="75515008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="156233728"/>
+        <c:axId val="75437568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Lokalna ilość wątków</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65871168"/>
+        <c:crossAx val="75515008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -675,7 +1156,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65871168"/>
+        <c:axId val="75515008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -710,7 +1191,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156233728"/>
+        <c:crossAx val="75437568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -847,21 +1328,40 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="151964672"/>
-        <c:axId val="65870016"/>
+        <c:axId val="75438080"/>
+        <c:axId val="75516736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="151964672"/>
+        <c:axId val="75438080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="t"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Globalna ilość wątków</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65870016"/>
+        <c:crossAx val="75516736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -869,18 +1369,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65870016"/>
+        <c:axId val="75516736"/>
         <c:scaling>
-          <c:orientation val="minMax"/>
+          <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas w kernelach OpenCL [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0.000000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151964672"/>
+        <c:crossAx val="75438080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1041,21 +1560,44 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="132672512"/>
-        <c:axId val="74094208"/>
+        <c:axId val="75438592"/>
+        <c:axId val="75518464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="132672512"/>
+        <c:axId val="75438592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="t"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Globalna</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> ilość wątków</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74094208"/>
+        <c:crossAx val="75518464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1063,18 +1605,962 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74094208"/>
+        <c:axId val="75518464"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> w kernelach OpenCL [s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="75438592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Czas w kernelach OpenCL od</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> globalnej ilości wątków przy lokalnej ilości wątków 128 na procesorze Intel Xeon X5650</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>10k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Arkusz1!$C$45,Arkusz1!$B$50,Arkusz1!$B$52,Arkusz1!$B$54,Arkusz1!$B$56,Arkusz1!$B$58)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Arkusz1!$G$45,Arkusz1!$G$50,Arkusz1!$G$52,Arkusz1!$G$54,Arkusz1!$G$56,Arkusz1!$G$58)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.2439787000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2024638000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.6634230000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5134308000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3101867999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2045647000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="85748224"/>
+        <c:axId val="77616768"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="85748224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Globalna ilość wątków</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="77616768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="77616768"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas w kernelach OpenCL [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="85748224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="121"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="21"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Stosunek czasu rozwiązania do rozmiaru macierzy dla optymalnej lokalnej ilości wątków na karcie Tesla M2090</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Rozmiar stały</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Arkusz1!$B$13,Arkusz1!$B$15,Arkusz1!$B$17,Arkusz1!$B$19)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Arkusz1!$L$13,Arkusz1!$L$15,Arkusz1!$L$17,Arkusz1!$L$19)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.1089340934093411E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0852421242124213E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1567500750075006E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0492745274527452E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Proporcjonalnie większe</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Arkusz1!$B$13,Arkusz1!$B$15,Arkusz1!$B$17,Arkusz1!$B$19)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Arkusz1!$L$14,Arkusz1!$L$16,Arkusz1!$L$18,Arkusz1!$L$20)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.1581063053152657E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2108064701617541E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3443089038612982E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0741344133400834E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="108953600"/>
+        <c:axId val="101048896"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="108953600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Globalna ilość wątków</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="101048896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="101048896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas w kernelach OpenCL [s] / rozmiar macierzy w teście</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132672512"/>
+        <c:crossAx val="108953600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="121"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="21"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Stosunek czasu rozwiązania do rozmiaru macierzy dla optymalnej lokalnej ilości wątków na procesorze Intel Xeon X5650</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Rozmiar stały</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Arkusz1!$B$50,Arkusz1!$B$52,Arkusz1!$B$54,Arkusz1!$B$56,Arkusz1!$B$58)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Arkusz1!$J$50,Arkusz1!$J$52,Arkusz1!$J$54,Arkusz1!$J$56,Arkusz1!$J$58)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.2025840584058407E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.664389438943896E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5135821582158217E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3103178317831783E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2047851785178521E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Proporcjonalnie większe</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Arkusz1!$B$50,Arkusz1!$B$52,Arkusz1!$B$54,Arkusz1!$B$56,Arkusz1!$B$58)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Arkusz1!$J$51,Arkusz1!$J$53,Arkusz1!$J$55,Arkusz1!$J$57,Arkusz1!$J$59)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0380438021901095E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6806340158503952E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1923527044088052E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2351490946818417E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1398085181516193E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="108957184"/>
+        <c:axId val="103690752"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="108957184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Globalna ilość wątków</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="103690752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="103690752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas w kernelach OpenCL [s] / rozmiar macierzy w teście</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="108957184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Realny czas rozwiązania od globalnej ilości wątków na karcie Tesla M2090</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>10k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$C$4:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$H$4:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.4759479999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4412330000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>203.24719999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3212809999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42.837831999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>219.401419</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62.985368999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="143006208"/>
+        <c:axId val="102818368"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="143006208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Globalna</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> ilość wątków</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="102818368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="102818368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas realny [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="143006208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1253,6 +2739,198 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Wykres 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Wykres 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Wykres 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Wykres 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Wykres 11"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Wykres 12"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1548,10 +3226,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" activeCellId="4" sqref="J12 J14 J16 J18 J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1560,14 +3238,16 @@
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1599,12 +3279,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1636,7 +3316,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1668,7 +3348,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1700,7 +3380,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1732,7 +3412,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1764,7 +3444,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1796,7 +3476,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1828,14 +3508,17 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>256</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1867,7 +3550,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1898,8 +3581,12 @@
       <c r="J13">
         <v>80</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <f>G13/E13</f>
+        <v>2.1089340934093411E-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1930,8 +3617,12 @@
       <c r="J14">
         <v>82</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <f t="shared" ref="L14:L20" si="0">G14/E14</f>
+        <v>2.1581063053152657E-6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
@@ -1962,8 +3653,12 @@
       <c r="J15">
         <v>90</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>2.0852421242124213E-6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
@@ -1994,8 +3689,12 @@
       <c r="J16">
         <v>91</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>2.2108064701617541E-6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6</v>
       </c>
@@ -2026,8 +3725,12 @@
       <c r="J17">
         <v>110</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>2.1567500750075006E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7</v>
       </c>
@@ -2058,8 +3761,12 @@
       <c r="J18">
         <v>108</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>2.3443089038612982E-6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>8</v>
       </c>
@@ -2090,8 +3797,12 @@
       <c r="J19">
         <v>206</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>3.0492745274527452E-6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>9</v>
       </c>
@@ -2122,15 +3833,19 @@
       <c r="J20">
         <v>202</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>3.0741344133400834E-6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2154,7 +3869,7 @@
       </c>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -2178,7 +3893,7 @@
       </c>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -2202,7 +3917,7 @@
       </c>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4</v>
       </c>
@@ -2226,7 +3941,7 @@
       </c>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5</v>
       </c>
@@ -2250,7 +3965,7 @@
       </c>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>6</v>
       </c>
@@ -2274,7 +3989,7 @@
       </c>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>7</v>
       </c>
@@ -2298,14 +4013,14 @@
       </c>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -2329,7 +4044,7 @@
       </c>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2353,7 +4068,7 @@
       </c>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
@@ -2737,12 +4452,12 @@
         <v>75.695792999999995</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -2767,8 +4482,12 @@
       <c r="H50">
         <v>127.65580300000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J50">
+        <f>G50/E50</f>
+        <v>1.2025840584058407E-6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2</v>
       </c>
@@ -2793,8 +4512,12 @@
       <c r="H51">
         <v>18.236799999999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J51">
+        <f t="shared" ref="J51:J59" si="1">G51/E51</f>
+        <v>1.0380438021901095E-6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3</v>
       </c>
@@ -2819,8 +4542,12 @@
       <c r="H52">
         <v>15.791224</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J52">
+        <f t="shared" si="1"/>
+        <v>9.664389438943896E-7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>4</v>
       </c>
@@ -2845,8 +4572,12 @@
       <c r="H53">
         <v>66.436701999999997</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J53">
+        <f t="shared" si="1"/>
+        <v>9.6806340158503952E-7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5</v>
       </c>
@@ -2871,8 +4602,12 @@
       <c r="H54">
         <v>206.13732899999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J54">
+        <f t="shared" si="1"/>
+        <v>1.5135821582158217E-6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>6</v>
       </c>
@@ -2897,8 +4632,12 @@
       <c r="H55">
         <v>1818.916725</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J55">
+        <f t="shared" si="1"/>
+        <v>1.1923527044088052E-6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>7</v>
       </c>
@@ -2923,8 +4662,12 @@
       <c r="H56">
         <v>10.482335000000001</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J56">
+        <f t="shared" si="1"/>
+        <v>1.3103178317831783E-6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>8</v>
       </c>
@@ -2949,8 +4692,12 @@
       <c r="H57">
         <v>980.509319</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J57">
+        <f t="shared" si="1"/>
+        <v>1.2351490946818417E-6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>9</v>
       </c>
@@ -2975,8 +4722,12 @@
       <c r="H58">
         <v>12.673311999999999</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J58">
+        <f t="shared" si="1"/>
+        <v>2.2047851785178521E-6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>10</v>
       </c>
@@ -3000,6 +4751,10 @@
       </c>
       <c r="H59">
         <v>10056.357128</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="1"/>
+        <v>2.1398085181516193E-6</v>
       </c>
     </row>
   </sheetData>
@@ -3012,8 +4767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="E116" workbookViewId="0">
+      <selection activeCell="Q141" sqref="Q141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/praca/DP.xlsx
+++ b/praca/DP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="18195" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="18195" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -169,7 +169,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -256,11 +255,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="75436032"/>
-        <c:axId val="100898432"/>
+        <c:axId val="68283904"/>
+        <c:axId val="67161472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75436032"/>
+        <c:axId val="68283904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -296,7 +295,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100898432"/>
+        <c:crossAx val="67161472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -304,7 +303,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100898432"/>
+        <c:axId val="67161472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -332,21 +331,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75436032"/>
+        <c:crossAx val="68283904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -479,11 +476,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="139556864"/>
-        <c:axId val="143736128"/>
+        <c:axId val="70728192"/>
+        <c:axId val="71248704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="139556864"/>
+        <c:axId val="70728192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -517,7 +514,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143736128"/>
+        <c:crossAx val="71248704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -525,7 +522,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143736128"/>
+        <c:axId val="71248704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -555,7 +552,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139556864"/>
+        <c:crossAx val="70728192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -682,11 +679,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="143005184"/>
-        <c:axId val="77613312"/>
+        <c:axId val="70728704"/>
+        <c:axId val="71250432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="143005184"/>
+        <c:axId val="70728704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -715,7 +712,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77613312"/>
+        <c:crossAx val="71250432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -723,7 +720,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77613312"/>
+        <c:axId val="71250432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -753,7 +750,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143005184"/>
+        <c:crossAx val="70728704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -809,7 +806,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -896,11 +892,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="75437056"/>
-        <c:axId val="100900160"/>
+        <c:axId val="68283392"/>
+        <c:axId val="67163200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75437056"/>
+        <c:axId val="68283392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -922,14 +918,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100900160"/>
+        <c:crossAx val="67163200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -937,7 +932,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100900160"/>
+        <c:axId val="67163200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -965,21 +960,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75437056"/>
+        <c:crossAx val="68283392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1028,7 +1021,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1115,11 +1107,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="75437568"/>
-        <c:axId val="75515008"/>
+        <c:axId val="68282880"/>
+        <c:axId val="67164928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75437568"/>
+        <c:axId val="68282880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1141,14 +1133,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75515008"/>
+        <c:crossAx val="67164928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1156,7 +1147,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75515008"/>
+        <c:axId val="67164928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1184,14 +1175,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75437568"/>
+        <c:crossAx val="68282880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1204,7 +1194,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1253,7 +1242,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1328,11 +1316,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="75438080"/>
-        <c:axId val="75516736"/>
+        <c:axId val="70725632"/>
+        <c:axId val="70591040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75438080"/>
+        <c:axId val="70725632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1354,14 +1342,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75516736"/>
+        <c:crossAx val="70591040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1369,7 +1356,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75516736"/>
+        <c:axId val="70591040"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1392,21 +1379,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75438080"/>
+        <c:crossAx val="70725632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1455,7 +1440,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1560,11 +1544,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="75438592"/>
-        <c:axId val="75518464"/>
+        <c:axId val="70726144"/>
+        <c:axId val="70592768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75438592"/>
+        <c:axId val="70726144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1590,14 +1574,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75518464"/>
+        <c:crossAx val="70592768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1605,7 +1588,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75518464"/>
+        <c:axId val="70592768"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1633,21 +1616,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75438592"/>
+        <c:crossAx val="70726144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1696,7 +1677,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1777,11 +1757,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="85748224"/>
-        <c:axId val="77616768"/>
+        <c:axId val="70726656"/>
+        <c:axId val="70594496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85748224"/>
+        <c:axId val="70726656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1803,14 +1783,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77616768"/>
+        <c:crossAx val="70594496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1818,7 +1797,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77616768"/>
+        <c:axId val="70594496"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1841,21 +1820,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85748224"/>
+        <c:crossAx val="70726656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1900,7 +1877,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2019,11 +1995,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="108953600"/>
-        <c:axId val="101048896"/>
+        <c:axId val="43459072"/>
+        <c:axId val="70596224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="108953600"/>
+        <c:axId val="43459072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2045,14 +2021,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101048896"/>
+        <c:crossAx val="70596224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2060,7 +2035,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101048896"/>
+        <c:axId val="70596224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2083,21 +2058,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108953600"/>
+        <c:crossAx val="43459072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2142,7 +2115,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2273,11 +2245,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="108957184"/>
-        <c:axId val="103690752"/>
+        <c:axId val="70727168"/>
+        <c:axId val="70597952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="108957184"/>
+        <c:axId val="70727168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2299,14 +2271,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103690752"/>
+        <c:crossAx val="70597952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2314,7 +2285,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103690752"/>
+        <c:axId val="70597952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2337,21 +2308,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108957184"/>
+        <c:crossAx val="70727168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2397,7 +2366,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2484,11 +2452,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="143006208"/>
-        <c:axId val="102818368"/>
+        <c:axId val="70727680"/>
+        <c:axId val="71246976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="143006208"/>
+        <c:axId val="70727680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2515,14 +2483,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102818368"/>
+        <c:crossAx val="71246976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2530,7 +2497,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102818368"/>
+        <c:axId val="71246976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2553,21 +2520,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143006208"/>
+        <c:crossAx val="70727680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3228,8 +3193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" activeCellId="4" sqref="J12 J14 J16 J18 J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4767,7 +4732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E116" workbookViewId="0">
+    <sheetView topLeftCell="E116" workbookViewId="0">
       <selection activeCell="Q141" sqref="Q141"/>
     </sheetView>
   </sheetViews>
